--- a/src/Analysis/fitting_results.xlsx
+++ b/src/Analysis/fitting_results.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>IMFocus</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Avg Delta</t>
+  </si>
+  <si>
+    <t>SASwapMemory</t>
+  </si>
+  <si>
+    <t>SASwapNoMemory</t>
+  </si>
+  <si>
+    <t>VPBindingAverage</t>
+  </si>
+  <si>
+    <t>VPBindingMemory</t>
   </si>
 </sst>
 </file>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -453,15 +465,15 @@
         <v>19691.302827180501</v>
       </c>
       <c r="F2">
-        <f>SUM(C2:D2)</f>
+        <f t="shared" ref="F2:F11" si="0">SUM(C2:D2)</f>
         <v>29955.034578565901</v>
       </c>
       <c r="G2">
-        <f>F2-F$9</f>
+        <f t="shared" ref="G2:G10" si="1">F2-F$12</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>G2/40</f>
+        <f t="shared" ref="H2:H10" si="2">G2/40</f>
         <v>0</v>
       </c>
     </row>
@@ -476,15 +488,15 @@
         <v>19872.491089780098</v>
       </c>
       <c r="F3">
-        <f>SUM(C3:D3)</f>
+        <f t="shared" si="0"/>
         <v>30150.642677518797</v>
       </c>
       <c r="G3">
-        <f>F3-F$9</f>
+        <f t="shared" si="1"/>
         <v>195.6080989528964</v>
       </c>
       <c r="H3">
-        <f>G3/40</f>
+        <f t="shared" si="2"/>
         <v>4.8902024738224101</v>
       </c>
     </row>
@@ -499,15 +511,15 @@
         <v>22262.8791684303</v>
       </c>
       <c r="F4">
-        <f>SUM(C4:D4)</f>
+        <f t="shared" si="0"/>
         <v>32970.657051607297</v>
       </c>
       <c r="G4">
-        <f>F4-F$9</f>
+        <f t="shared" si="1"/>
         <v>3015.622473041396</v>
       </c>
       <c r="H4">
-        <f>G4/40</f>
+        <f t="shared" si="2"/>
         <v>75.390561826034897</v>
       </c>
     </row>
@@ -522,15 +534,15 @@
         <v>20547.893881821001</v>
       </c>
       <c r="F5">
-        <f>SUM(C5:D5)</f>
+        <f t="shared" si="0"/>
         <v>30910.625475588902</v>
       </c>
       <c r="G5">
-        <f>F5-F$9</f>
+        <f t="shared" si="1"/>
         <v>955.59089702300116</v>
       </c>
       <c r="H5">
-        <f>G5/40</f>
+        <f t="shared" si="2"/>
         <v>23.889772425575028</v>
       </c>
     </row>
@@ -545,15 +557,15 @@
         <v>22468.929894851</v>
       </c>
       <c r="F6">
-        <f>SUM(C6:D6)</f>
+        <f t="shared" si="0"/>
         <v>33233.242873975003</v>
       </c>
       <c r="G6">
-        <f>F6-F$9</f>
+        <f t="shared" si="1"/>
         <v>3278.208295409102</v>
       </c>
       <c r="H6">
-        <f>G6/40</f>
+        <f t="shared" si="2"/>
         <v>81.955207385227553</v>
       </c>
     </row>
@@ -568,31 +580,123 @@
         <v>20707.18</v>
       </c>
       <c r="F7">
-        <f>SUM(C7:D7)</f>
+        <f t="shared" si="0"/>
         <v>31136.853666479503</v>
       </c>
       <c r="G7">
-        <f>F7-F$9</f>
+        <f t="shared" si="1"/>
         <v>1181.8190879136018</v>
       </c>
       <c r="H7">
-        <f>G7/40</f>
+        <f t="shared" si="2"/>
         <v>29.545477197840047</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>10764.63</v>
+      </c>
+      <c r="D8">
+        <v>22463.29</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>33227.919999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3272.8854214340972</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>81.822135535852425</v>
+      </c>
+    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>10282.81</v>
+      </c>
+      <c r="D9">
+        <v>20358.41</v>
+      </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>30641.22</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>686.18542143410014</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>17.154635535852503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>11696</v>
+      </c>
+      <c r="D10">
+        <v>21305</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>33001</v>
+      </c>
+      <c r="G10">
+        <f>F10-F$12</f>
+        <v>3045.965421434099</v>
+      </c>
+      <c r="H10">
+        <f>G10/40</f>
+        <v>76.14913553585248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>11587</v>
+      </c>
+      <c r="D11">
+        <v>20820</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>32407</v>
+      </c>
+      <c r="G11">
+        <f>F11-F$12</f>
+        <v>2451.965421434099</v>
+      </c>
+      <c r="H11">
+        <f>G11/40</f>
+        <v>61.299135535852471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12">
         <f>MIN(F2:F6)</f>
         <v>29955.034578565901</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28">
         <v>19691.302827180501</v>
       </c>
     </row>

--- a/src/Analysis/fitting_results.xlsx
+++ b/src/Analysis/fitting_results.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -469,11 +469,11 @@
         <v>29955.034578565901</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G10" si="1">F2-F$12</f>
+        <f t="shared" ref="G2:G9" si="1">F2-F$12</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H10" si="2">G2/40</f>
+        <f t="shared" ref="H2:H9" si="2">G2/40</f>
         <v>0</v>
       </c>
     </row>
@@ -643,22 +643,22 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>11696</v>
+        <v>10300.4335332544</v>
       </c>
       <c r="D10">
-        <v>21305</v>
+        <v>20071.046480664001</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>33001</v>
+        <v>30371.480013918401</v>
       </c>
       <c r="G10">
         <f>F10-F$12</f>
-        <v>3045.965421434099</v>
+        <v>416.44543535249977</v>
       </c>
       <c r="H10">
         <f>G10/40</f>
-        <v>76.14913553585248</v>
+        <v>10.411135883812495</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
